--- a/data/input/FJC/FCJ Daily Roster (20211027).xlsx
+++ b/data/input/FJC/FCJ Daily Roster (20211027).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10507"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ayanthiwallrafen/Documents/GitHub/NetJail/Untitled/data/input/FJC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B26D2EB-AB86-7D4A-9D70-8EE2C1351843}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA8CB5F3-36E7-0243-9ABE-1455F16E175C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3220" yWindow="460" windowWidth="25420" windowHeight="14500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="22600" windowHeight="14420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Fulton County Jail Roster (10-2" sheetId="1" r:id="rId1"/>
@@ -21334,7 +21334,7 @@
   <dimension ref="A1:H2754"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/data/input/FJC/FCJ Daily Roster (20211027).xlsx
+++ b/data/input/FJC/FCJ Daily Roster (20211027).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ayanthiwallrafen/Documents/GitHub/NetJail/Untitled/data/input/FJC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA7FA269-21F0-D749-8DEB-D5786A6CA8DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26CB0073-0C27-8349-95B3-1A07C1E16CD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25220" windowHeight="13800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Fulton County Jail Roster (10-2" sheetId="1" r:id="rId1"/>
@@ -21346,7 +21346,7 @@
   <dimension ref="A1:H2754"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
